--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3402.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3402.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.665535384953873</v>
+        <v>1.80091392993927</v>
       </c>
       <c r="B1">
-        <v>1.819021929935264</v>
+        <v>6.338734149932861</v>
       </c>
       <c r="C1">
-        <v>1.978244531834438</v>
+        <v>3.423346519470215</v>
       </c>
       <c r="D1">
-        <v>2.858973632653825</v>
+        <v>1.512985944747925</v>
       </c>
       <c r="E1">
-        <v>4.746514052204451</v>
+        <v>1.064737796783447</v>
       </c>
     </row>
   </sheetData>
